--- a/COVID-TAIWAN.xlsx
+++ b/COVID-TAIWAN.xlsx
@@ -355,42 +355,7 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="輸入" xfId="1" builtinId="20"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <b/>
@@ -528,8 +493,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="22"/>
-      <tableStyleElement type="headerRow" dxfId="21"/>
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1711,8 +1676,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="101030912"/>
-        <c:axId val="101044992"/>
+        <c:axId val="169364096"/>
+        <c:axId val="169394560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3427,8 +3392,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101030912"/>
-        <c:axId val="101044992"/>
+        <c:axId val="169364096"/>
+        <c:axId val="169394560"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4561,11 +4526,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101052416"/>
-        <c:axId val="101046528"/>
+        <c:axId val="169397632"/>
+        <c:axId val="169396096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="101030912"/>
+        <c:axId val="169364096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4575,14 +4540,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101044992"/>
+        <c:crossAx val="169394560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="101044992"/>
+        <c:axId val="169394560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4594,12 +4559,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101030912"/>
+        <c:crossAx val="169364096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101046528"/>
+        <c:axId val="169396096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -4611,12 +4576,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101052416"/>
+        <c:crossAx val="169397632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="101052416"/>
+        <c:axId val="169397632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4626,7 +4591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101046528"/>
+        <c:crossAx val="169396096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -10542,19 +10507,19 @@
       </c>
       <c r="D179" s="14"/>
       <c r="E179" s="13">
-        <f t="shared" ref="E179:E186" si="129">AVERAGE(C173:C179)</f>
+        <f t="shared" ref="E179:E185" si="129">AVERAGE(C173:C179)</f>
         <v>39992</v>
       </c>
       <c r="F179" s="15">
-        <f t="shared" ref="F179:F186" si="130">E179/E178-1</f>
+        <f t="shared" ref="F179:F185" si="130">E179/E178-1</f>
         <v>-2.0995747380877505E-3</v>
       </c>
       <c r="G179" s="13">
-        <f t="shared" ref="G179:G186" si="131">G178+C179</f>
+        <f t="shared" ref="G179:G185" si="131">G178+C179</f>
         <v>6264655</v>
       </c>
       <c r="H179" s="14">
-        <f t="shared" ref="H179:H186" si="132">G179/23000000</f>
+        <f t="shared" ref="H179:H185" si="132">G179/23000000</f>
         <v>0.27237630434782606</v>
       </c>
     </row>
@@ -10743,82 +10708,82 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F9:F151">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F186">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F152:F156">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F157">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F158">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F159:F163">
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F164">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F165">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F166:F170">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F171">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F173:F177">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F178">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F179">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F180:F184">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F185">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/COVID-TAIWAN.xlsx
+++ b/COVID-TAIWAN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="47">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,30 @@
     <t>五</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -295,7 +319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -350,12 +374,64 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="輸入" xfId="1" builtinId="20"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -493,8 +569,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="24"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -527,7 +603,7 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -542,17 +618,17 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="7"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$B$2:$B$184</c:f>
+              <c:f>工作表1!$B$2:$B$221</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="183"/>
+                <c:ptCount val="220"/>
                 <c:pt idx="0">
                   <c:v>44652</c:v>
                 </c:pt>
@@ -1101,16 +1177,127 @@
                 </c:pt>
                 <c:pt idx="182">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44836</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44837</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44838</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44839</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44840</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44841</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44842</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44843</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44844</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44845</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44846</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44847</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44848</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44849</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44850</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44852</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44854</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44855</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44856</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44857</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44859</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44860</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44861</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44862</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44863</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44864</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44867</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44868</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44869</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44870</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$2:$C$186</c:f>
+              <c:f>工作表1!$C$2:$C$221</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="185"/>
+                <c:ptCount val="220"/>
                 <c:pt idx="0">
                   <c:v>236</c:v>
                 </c:pt>
@@ -1663,7 +1850,724 @@
                 <c:pt idx="183">
                   <c:v>43085</c:v>
                 </c:pt>
+                <c:pt idx="184">
+                  <c:v>43307</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>33431</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>49574</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>54929</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>46484</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>50779</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44534</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44565</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>32068</c:v>
+                </c:pt>
               </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>前日上升比例</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$B$2:$B$221</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="220"/>
+                <c:pt idx="0">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44653</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44654</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44655</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44658</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44659</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44660</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44661</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44662</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44665</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44668</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44669</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44670</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44671</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44672</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44674</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44675</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44677</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44681</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44683</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44684</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44685</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44686</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44687</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44688</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44689</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44690</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44691</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44692</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44693</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44694</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44695</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44696</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44697</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44698</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44699</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44700</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44701</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44702</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44703</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44704</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44705</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44706</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44707</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44708</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44709</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44710</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44711</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44716</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44717</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44719</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44720</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44721</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44723</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44724</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44726</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44728</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44730</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44731</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44732</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44733</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44734</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44735</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44737</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44738</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44739</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44740</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44741</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44744</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44745</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44746</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44749</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44751</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44752</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44753</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44754</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44755</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44756</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44758</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44759</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44760</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44761</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44762</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44763</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44765</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44766</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44767</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44769</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44770</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44772</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44773</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44775</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44776</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44777</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44778</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44779</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44780</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44782</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44783</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44784</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44786</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44787</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44788</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44789</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44791</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44792</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44793</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44794</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44795</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44796</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44798</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44799</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44800</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44801</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44802</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44803</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44807</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44808</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44809</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44811</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44814</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44815</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44816</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44817</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44818</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44819</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44821</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44822</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44824</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44825</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44826</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44827</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44829</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44830</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44831</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44832</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44833</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44836</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44837</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44838</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44839</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44840</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44841</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44842</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44843</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44844</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44845</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44846</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44847</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44848</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44849</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44850</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44852</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44854</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44855</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44856</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44857</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44859</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44860</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44861</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44862</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44863</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44864</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44867</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44868</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44869</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44870</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$D$2:$D$221</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1676,593 +2580,14 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="169364096"/>
-        <c:axId val="169394560"/>
+        <c:axId val="156846336"/>
+        <c:axId val="156860416"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>前日上升比例</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$B$2:$B$184</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="183"/>
-                <c:pt idx="0">
-                  <c:v>44652</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44653</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44654</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44655</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44656</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44657</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44658</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44659</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44660</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44661</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44662</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44663</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44664</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44665</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44666</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44667</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44668</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44669</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44670</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44671</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44672</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44673</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44674</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44675</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44676</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44677</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44678</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44679</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44680</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44681</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44682</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44683</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44684</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44685</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44686</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44687</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44688</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44689</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44690</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44691</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44692</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44693</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44694</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44695</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44696</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44697</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44698</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44699</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44700</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44701</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44702</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44703</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44704</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44705</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44706</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44707</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44708</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44709</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44710</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44711</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44712</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44713</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44714</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44715</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44716</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44717</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44718</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44719</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44720</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44721</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44722</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44723</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44724</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44725</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44726</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44727</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44728</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44729</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44730</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44731</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44732</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44733</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44734</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44735</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44736</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44737</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44738</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44739</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44740</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44741</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44743</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44744</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44745</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44746</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44747</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44748</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44749</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44750</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44751</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44752</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44753</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44754</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44755</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44756</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44757</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44758</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44759</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44760</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44761</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44762</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44763</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>44764</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>44765</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>44766</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44767</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>44768</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>44769</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>44770</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>44771</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>44772</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>44773</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>44774</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>44775</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>44776</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>44777</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>44778</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>44779</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>44780</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>44781</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>44782</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>44783</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>44784</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>44785</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>44786</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>44787</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>44788</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>44789</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>44790</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>44791</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>44792</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>44793</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>44794</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>44795</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>44796</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>44797</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>44798</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>44799</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>44800</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>44801</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>44802</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>44803</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>44804</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>44805</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>44806</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>44807</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>44808</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>44809</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>44810</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>44811</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>44812</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>44813</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>44814</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>44815</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>44816</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>44817</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>44818</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>44819</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>44820</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>44821</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>44822</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>44823</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>44824</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>44825</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>44826</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>44827</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>44828</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>44829</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>44830</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>44831</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>44832</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>44833</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>44834</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$D$2:$D$186</c:f>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -2276,15 +2601,15 @@
             </c:strRef>
           </c:tx>
           <c:marker>
-            <c:symbol val="x"/>
+            <c:symbol val="plus"/>
             <c:size val="7"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$B$2:$B$184</c:f>
+              <c:f>工作表1!$B$2:$B$221</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="183"/>
+                <c:ptCount val="220"/>
                 <c:pt idx="0">
                   <c:v>44652</c:v>
                 </c:pt>
@@ -2833,16 +3158,127 @@
                 </c:pt>
                 <c:pt idx="182">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44836</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44837</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44838</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44839</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44840</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44841</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44842</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44843</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44844</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44845</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44846</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44847</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44848</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44849</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44850</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44852</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44854</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44855</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44856</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44857</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44859</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44860</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44861</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44862</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44863</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44864</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44867</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44868</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44869</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44870</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$E$2:$E$186</c:f>
+              <c:f>工作表1!$E$2:$E$221</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="185"/>
+                <c:ptCount val="220"/>
                 <c:pt idx="6">
                   <c:v>323.71428571428572</c:v>
                 </c:pt>
@@ -3376,6 +3812,1289 @@
                 </c:pt>
                 <c:pt idx="183">
                   <c:v>41918</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>42536.142857142855</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>43238.714285714283</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>43770.714285714283</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44902.142857142855</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>45941.285714285717</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>46148.285714285717</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>46328</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>46133.285714285717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7日平均上升</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$B$2:$B$221</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="220"/>
+                <c:pt idx="0">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44653</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44654</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44655</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44658</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44659</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44660</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44661</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44662</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44665</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44668</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44669</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44670</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44671</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44672</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44674</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44675</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44677</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44681</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44683</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44684</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44685</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44686</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44687</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44688</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44689</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44690</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44691</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44692</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44693</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44694</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44695</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44696</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44697</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44698</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44699</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44700</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44701</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44702</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44703</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44704</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44705</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44706</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44707</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44708</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44709</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44710</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44711</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44716</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44717</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44719</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44720</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44721</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44723</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44724</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44726</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44728</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44730</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44731</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44732</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44733</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44734</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44735</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44737</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44738</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44739</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44740</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44741</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44744</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44745</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44746</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44749</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44751</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44752</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44753</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44754</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44755</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44756</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44758</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44759</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44760</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44761</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44762</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44763</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44765</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44766</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44767</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44769</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44770</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44772</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44773</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44775</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44776</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44777</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44778</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44779</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44780</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44782</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44783</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44784</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44786</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44787</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44788</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44789</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44791</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44792</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44793</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44794</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44795</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44796</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44798</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44799</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44800</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44801</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44802</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44803</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44807</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44808</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44809</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44811</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44814</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44815</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44816</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44817</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44818</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44819</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44821</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44822</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44824</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44825</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44826</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44827</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44829</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44830</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44831</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44832</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44833</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44836</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44837</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44838</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44839</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44840</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44841</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44842</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44843</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44844</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44845</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44846</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44847</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44848</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44849</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44850</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44852</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44854</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44855</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44856</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44857</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44859</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44860</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44861</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44862</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44863</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44864</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44867</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44868</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44869</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44870</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$F$2:$F$221</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="220"/>
+                <c:pt idx="7" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.1195939982347749</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>6.8584942845880903E-2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>5.5699004057543355E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>5.7302585604472434E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>8.9226701916721662E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.14714805825242716</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>9.0716741602750561E-2</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.17022308438409328</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.12867799419809356</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.14301450339636501</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.15274654673947952</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.14978403232548421</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.19898206495395043</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.21174449161107756</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.213278838935691</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.2065860030248865</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.22118397812090484</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.17347081603135361</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.18563874199833008</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.21582830315224677</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.23124448367166806</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.18387096774193545</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.20490841659097803</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.18834115928828288</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.16849477996564022</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.19049988690341557</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.18681600547195609</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.15010926206085062</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.16869893236452715</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.18760607666700424</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.13677390885750951</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>9.9011910013233395E-2</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.11113563934399906</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.10377661784095205</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>0.11545535468837964</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>8.4490513227497788E-2</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>4.7356759666811854E-2</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>6.3045982652539356E-2</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>5.2119527449617786E-2</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>3.4653259554184412E-2</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>6.2811238167090222E-2</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>5.248987186783971E-2</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>4.1405429997884768E-2</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>3.9467935894782924E-2</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>1.9757046212833362E-2</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>8.1867941172217851E-3</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>2.9766718005081128E-2</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>6.9575633902625444E-3</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-1.4647220036829833E-2</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>1.5958193533895715E-2</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-6.4909717112467957E-3</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-5.1251738525729396E-3</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-1.0799438009827855E-2</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-3.0561483344874185E-3</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-1.8765216836598153E-3</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-8.7362835377599035E-3</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-3.2758318080385096E-2</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-2.3570974927370703E-2</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-2.7361801945989361E-2</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-1.3803537448919045E-2</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>4.9463062835091165E-3</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-1.5875389015883257E-2</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-8.0337581756831922E-3</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-1.6558353232778211E-2</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>2.3588810478087474E-2</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-2.2927092925491444E-2</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-1.6212273631545315E-2</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-3.5441319188460829E-2</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-2.4307144892865451E-2</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-2.1566813750005576E-2</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-2.9596156977690913E-2</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-6.0494189705080359E-2</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-5.2094961673021523E-5</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-2.3513417632334277E-2</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-2.4859569473414056E-2</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-4.3561405428501621E-2</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-4.0492391843227837E-2</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-2.69531371986792E-2</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-3.9136739344181048E-2</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-3.3370479119918084E-2</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-2.2152206896335125E-2</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-3.8947480010665281E-2</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-3.3563193801455449E-2</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-3.2560198667708762E-2</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-3.56330797391603E-2</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-2.0263582272145975E-2</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-2.6354723606491604E-2</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>1.3749737674592089E-2</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-3.1684633431984355E-2</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-3.0195536587393601E-2</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-3.0535597648595814E-2</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-2.2414519117399223E-2</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-2.8825320795840881E-2</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-2.1453440667065893E-2</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-5.886378882100185E-2</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-2.2721909449482491E-2</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-2.2993943515520643E-2</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-1.9056073682139907E-2</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-2.6568421269134501E-2</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-1.4996408045977017E-2</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-1.8871364755219222E-2</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-6.165484220077122E-3</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-2.2829518330711784E-2</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-1.5280709159983141E-2</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-1.4363283036122554E-2</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-7.0572407754265765E-3</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-1.5774105004964123E-2</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-1.5356407502566394E-2</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-5.2789846993810396E-3</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-1.2570805440281108E-2</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-9.2275599730043956E-3</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-7.4309847293264619E-3</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-5.0160338395117687E-3</c:v>
+                </c:pt>
+                <c:pt idx="120" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-6.8597083056396446E-3</c:v>
+                </c:pt>
+                <c:pt idx="121" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-4.217491224082548E-3</c:v>
+                </c:pt>
+                <c:pt idx="122" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-3.4428100431145303E-3</c:v>
+                </c:pt>
+                <c:pt idx="123" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-9.6388148393211637E-3</c:v>
+                </c:pt>
+                <c:pt idx="124" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-1.1390063085402913E-2</c:v>
+                </c:pt>
+                <c:pt idx="125" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-6.5761685370625544E-3</c:v>
+                </c:pt>
+                <c:pt idx="126" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-9.2885129875650563E-3</c:v>
+                </c:pt>
+                <c:pt idx="127" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-1.0141492304746591E-2</c:v>
+                </c:pt>
+                <c:pt idx="128" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>4.6824660988120659E-3</c:v>
+                </c:pt>
+                <c:pt idx="129" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-7.7810161794678034E-3</c:v>
+                </c:pt>
+                <c:pt idx="130" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>7.5610066175535451E-4</c:v>
+                </c:pt>
+                <c:pt idx="131" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-7.4215720360504278E-4</c:v>
+                </c:pt>
+                <c:pt idx="132" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-3.3455333783871666E-4</c:v>
+                </c:pt>
+                <c:pt idx="133" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>8.0319672295736666E-4</c:v>
+                </c:pt>
+                <c:pt idx="134" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>8.8548250101989634E-3</c:v>
+                </c:pt>
+                <c:pt idx="135" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-4.5012496105325539E-3</c:v>
+                </c:pt>
+                <c:pt idx="136" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>2.5304991742580718E-3</c:v>
+                </c:pt>
+                <c:pt idx="137" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-3.3012726837952089E-3</c:v>
+                </c:pt>
+                <c:pt idx="138" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>7.0975868204810055E-3</c:v>
+                </c:pt>
+                <c:pt idx="139" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>3.4145954101485465E-3</c:v>
+                </c:pt>
+                <c:pt idx="140" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>5.4737786219267726E-3</c:v>
+                </c:pt>
+                <c:pt idx="141" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>5.7194579632957598E-3</c:v>
+                </c:pt>
+                <c:pt idx="142" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>8.510832561597681E-3</c:v>
+                </c:pt>
+                <c:pt idx="143" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>7.2362082010359874E-3</c:v>
+                </c:pt>
+                <c:pt idx="144" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>2.060889328317006E-2</c:v>
+                </c:pt>
+                <c:pt idx="145" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>2.3256252830758273E-2</c:v>
+                </c:pt>
+                <c:pt idx="146" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>2.3668275289705942E-2</c:v>
+                </c:pt>
+                <c:pt idx="147" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>2.3673542924060875E-2</c:v>
+                </c:pt>
+                <c:pt idx="148" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>2.1941017382683059E-2</c:v>
+                </c:pt>
+                <c:pt idx="149" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>2.5075058697910935E-2</c:v>
+                </c:pt>
+                <c:pt idx="150" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>1.9807913084870954E-2</c:v>
+                </c:pt>
+                <c:pt idx="151" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>2.8039230760782408E-2</c:v>
+                </c:pt>
+                <c:pt idx="152" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>3.2333019956412246E-2</c:v>
+                </c:pt>
+                <c:pt idx="153" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>3.5408075090163083E-2</c:v>
+                </c:pt>
+                <c:pt idx="154" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>3.5271658737456413E-2</c:v>
+                </c:pt>
+                <c:pt idx="155" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>3.1994284666106765E-2</c:v>
+                </c:pt>
+                <c:pt idx="156" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>3.5516160718461975E-2</c:v>
+                </c:pt>
+                <c:pt idx="157" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>1.650984944643441E-2</c:v>
+                </c:pt>
+                <c:pt idx="158" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>2.3191638745456489E-2</c:v>
+                </c:pt>
+                <c:pt idx="159" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>2.8980660739955644E-2</c:v>
+                </c:pt>
+                <c:pt idx="160" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>4.2459798252649783E-3</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>1.8534395803913029E-3</c:v>
+                </c:pt>
+                <c:pt idx="162" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>1.3847812498688938E-2</c:v>
+                </c:pt>
+                <c:pt idx="163" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-9.2271534852158554E-3</c:v>
+                </c:pt>
+                <c:pt idx="164" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>6.1808826968694497E-3</c:v>
+                </c:pt>
+                <c:pt idx="165" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>4.2933988577500193E-2</c:v>
+                </c:pt>
+                <c:pt idx="166" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>3.3477665637237752E-2</c:v>
+                </c:pt>
+                <c:pt idx="167" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>3.984072950201023E-2</c:v>
+                </c:pt>
+                <c:pt idx="168" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>2.744139540051127E-2</c:v>
+                </c:pt>
+                <c:pt idx="169" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>1.3689446366782043E-2</c:v>
+                </c:pt>
+                <c:pt idx="170" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>2.6458017764313446E-2</c:v>
+                </c:pt>
+                <c:pt idx="171" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>9.9279822917497373E-3</c:v>
+                </c:pt>
+                <c:pt idx="172" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-7.9027251367714824E-3</c:v>
+                </c:pt>
+                <c:pt idx="173" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-9.701252588671605E-3</c:v>
+                </c:pt>
+                <c:pt idx="174" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-1.0473580393457693E-2</c:v>
+                </c:pt>
+                <c:pt idx="175" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-5.8037998130082702E-3</c:v>
+                </c:pt>
+                <c:pt idx="176" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-4.4607686575108829E-3</c:v>
+                </c:pt>
+                <c:pt idx="177" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-2.0995747380877505E-3</c:v>
+                </c:pt>
+                <c:pt idx="178" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>2.2861715200184207E-4</c:v>
+                </c:pt>
+                <c:pt idx="179" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>3.9391731664808471E-3</c:v>
+                </c:pt>
+                <c:pt idx="180" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>6.0865636705784709E-3</c:v>
+                </c:pt>
+                <c:pt idx="181" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>8.5212607222917569E-3</c:v>
+                </c:pt>
+                <c:pt idx="182" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>1.220059460369094E-2</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>1.6327689877802198E-2</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>1.4746477817235037E-2</c:v>
+                </c:pt>
+                <c:pt idx="185" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>1.651704600793269E-2</c:v>
+                </c:pt>
+                <c:pt idx="186" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>1.2303788602145538E-2</c:v>
+                </c:pt>
+                <c:pt idx="187" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>2.0613913412425244E-2</c:v>
+                </c:pt>
+                <c:pt idx="188" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>5.1293366718792033E-3</c:v>
+                </c:pt>
+                <c:pt idx="189" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>2.3142389004661146E-2</c:v>
+                </c:pt>
+                <c:pt idx="190" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>4.5057511295474306E-3</c:v>
+                </c:pt>
+                <c:pt idx="191" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>3.894278691670916E-3</c:v>
+                </c:pt>
+                <c:pt idx="192" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-4.2029503910007149E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3392,1145 +5111,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="169364096"/>
-        <c:axId val="169394560"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>7日平均上升</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="plus"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$B$2:$B$184</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="183"/>
-                <c:pt idx="0">
-                  <c:v>44652</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44653</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44654</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44655</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44656</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44657</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44658</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44659</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44660</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44661</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44662</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44663</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44664</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44665</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44666</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44667</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44668</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44669</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44670</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44671</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44672</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44673</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44674</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44675</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44676</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44677</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44678</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44679</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44680</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44681</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44682</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44683</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44684</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44685</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44686</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44687</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44688</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44689</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44690</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44691</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44692</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44693</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44694</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44695</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44696</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44697</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44698</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44699</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44700</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44701</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44702</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44703</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44704</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44705</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44706</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44707</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44708</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44709</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44710</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44711</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44712</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44713</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44714</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44715</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44716</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44717</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44718</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44719</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44720</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44721</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44722</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44723</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44724</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44725</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44726</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44727</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44728</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44729</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44730</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44731</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44732</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44733</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44734</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44735</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44736</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44737</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44738</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44739</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44740</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44741</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44743</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44744</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44745</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44746</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44747</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44748</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44749</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44750</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44751</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44752</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44753</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44754</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44755</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44756</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44757</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44758</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44759</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44760</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44761</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44762</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44763</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>44764</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>44765</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>44766</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44767</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>44768</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>44769</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>44770</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>44771</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>44772</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>44773</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>44774</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>44775</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>44776</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>44777</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>44778</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>44779</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>44780</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>44781</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>44782</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>44783</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>44784</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>44785</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>44786</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>44787</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>44788</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>44789</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>44790</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>44791</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>44792</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>44793</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>44794</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>44795</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>44796</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>44797</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>44798</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>44799</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>44800</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>44801</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>44802</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>44803</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>44804</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>44805</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>44806</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>44807</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>44808</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>44809</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>44810</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>44811</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>44812</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>44813</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>44814</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>44815</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>44816</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>44817</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>44818</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>44819</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>44820</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>44821</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>44822</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>44823</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>44824</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>44825</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>44826</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>44827</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>44828</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>44829</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>44830</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>44831</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>44832</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>44833</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>44834</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$F$2:$F$186</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="185"/>
-                <c:pt idx="7" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.1195939982347749</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>6.8584942845880903E-2</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>5.5699004057543355E-2</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>5.7302585604472434E-2</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>8.9226701916721662E-2</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.14714805825242716</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>9.0716741602750561E-2</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.17022308438409328</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.12867799419809356</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.14301450339636501</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.15274654673947952</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.14978403232548421</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.19898206495395043</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.21174449161107756</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.213278838935691</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.2065860030248865</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.22118397812090484</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.17347081603135361</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.18563874199833008</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.21582830315224677</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.23124448367166806</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.18387096774193545</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.20490841659097803</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.18834115928828288</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.16849477996564022</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.19049988690341557</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.18681600547195609</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.15010926206085062</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.16869893236452715</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.18760607666700424</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.13677390885750951</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>9.9011910013233395E-2</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.11113563934399906</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.10377661784095205</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>0.11545535468837964</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>8.4490513227497788E-2</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>4.7356759666811854E-2</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>6.3045982652539356E-2</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>5.2119527449617786E-2</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>3.4653259554184412E-2</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>6.2811238167090222E-2</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>5.248987186783971E-2</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>4.1405429997884768E-2</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>3.9467935894782924E-2</c:v>
-                </c:pt>
-                <c:pt idx="51" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>1.9757046212833362E-2</c:v>
-                </c:pt>
-                <c:pt idx="52" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>8.1867941172217851E-3</c:v>
-                </c:pt>
-                <c:pt idx="53" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>2.9766718005081128E-2</c:v>
-                </c:pt>
-                <c:pt idx="54" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>6.9575633902625444E-3</c:v>
-                </c:pt>
-                <c:pt idx="55" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-1.4647220036829833E-2</c:v>
-                </c:pt>
-                <c:pt idx="56" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>1.5958193533895715E-2</c:v>
-                </c:pt>
-                <c:pt idx="57" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-6.4909717112467957E-3</c:v>
-                </c:pt>
-                <c:pt idx="58" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-5.1251738525729396E-3</c:v>
-                </c:pt>
-                <c:pt idx="59" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-1.0799438009827855E-2</c:v>
-                </c:pt>
-                <c:pt idx="60" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-3.0561483344874185E-3</c:v>
-                </c:pt>
-                <c:pt idx="61" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-1.8765216836598153E-3</c:v>
-                </c:pt>
-                <c:pt idx="62" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-8.7362835377599035E-3</c:v>
-                </c:pt>
-                <c:pt idx="63" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-3.2758318080385096E-2</c:v>
-                </c:pt>
-                <c:pt idx="64" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-2.3570974927370703E-2</c:v>
-                </c:pt>
-                <c:pt idx="65" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-2.7361801945989361E-2</c:v>
-                </c:pt>
-                <c:pt idx="66" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-1.3803537448919045E-2</c:v>
-                </c:pt>
-                <c:pt idx="67" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>4.9463062835091165E-3</c:v>
-                </c:pt>
-                <c:pt idx="68" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-1.5875389015883257E-2</c:v>
-                </c:pt>
-                <c:pt idx="69" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-8.0337581756831922E-3</c:v>
-                </c:pt>
-                <c:pt idx="70" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-1.6558353232778211E-2</c:v>
-                </c:pt>
-                <c:pt idx="71" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>2.3588810478087474E-2</c:v>
-                </c:pt>
-                <c:pt idx="72" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-2.2927092925491444E-2</c:v>
-                </c:pt>
-                <c:pt idx="73" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-1.6212273631545315E-2</c:v>
-                </c:pt>
-                <c:pt idx="74" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-3.5441319188460829E-2</c:v>
-                </c:pt>
-                <c:pt idx="75" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-2.4307144892865451E-2</c:v>
-                </c:pt>
-                <c:pt idx="76" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-2.1566813750005576E-2</c:v>
-                </c:pt>
-                <c:pt idx="77" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-2.9596156977690913E-2</c:v>
-                </c:pt>
-                <c:pt idx="78" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-6.0494189705080359E-2</c:v>
-                </c:pt>
-                <c:pt idx="79" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-5.2094961673021523E-5</c:v>
-                </c:pt>
-                <c:pt idx="80" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-2.3513417632334277E-2</c:v>
-                </c:pt>
-                <c:pt idx="81" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-2.4859569473414056E-2</c:v>
-                </c:pt>
-                <c:pt idx="82" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-4.3561405428501621E-2</c:v>
-                </c:pt>
-                <c:pt idx="83" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-4.0492391843227837E-2</c:v>
-                </c:pt>
-                <c:pt idx="84" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-2.69531371986792E-2</c:v>
-                </c:pt>
-                <c:pt idx="85" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-3.9136739344181048E-2</c:v>
-                </c:pt>
-                <c:pt idx="86" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-3.3370479119918084E-2</c:v>
-                </c:pt>
-                <c:pt idx="87" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-2.2152206896335125E-2</c:v>
-                </c:pt>
-                <c:pt idx="88" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-3.8947480010665281E-2</c:v>
-                </c:pt>
-                <c:pt idx="89" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-3.3563193801455449E-2</c:v>
-                </c:pt>
-                <c:pt idx="90" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-3.2560198667708762E-2</c:v>
-                </c:pt>
-                <c:pt idx="91" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-3.56330797391603E-2</c:v>
-                </c:pt>
-                <c:pt idx="92" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-2.0263582272145975E-2</c:v>
-                </c:pt>
-                <c:pt idx="93" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-2.6354723606491604E-2</c:v>
-                </c:pt>
-                <c:pt idx="94" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>1.3749737674592089E-2</c:v>
-                </c:pt>
-                <c:pt idx="95" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-3.1684633431984355E-2</c:v>
-                </c:pt>
-                <c:pt idx="96" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-3.0195536587393601E-2</c:v>
-                </c:pt>
-                <c:pt idx="97" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-3.0535597648595814E-2</c:v>
-                </c:pt>
-                <c:pt idx="98" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-2.2414519117399223E-2</c:v>
-                </c:pt>
-                <c:pt idx="99" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-2.8825320795840881E-2</c:v>
-                </c:pt>
-                <c:pt idx="100" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-2.1453440667065893E-2</c:v>
-                </c:pt>
-                <c:pt idx="101" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-5.886378882100185E-2</c:v>
-                </c:pt>
-                <c:pt idx="102" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-2.2721909449482491E-2</c:v>
-                </c:pt>
-                <c:pt idx="103" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-2.2993943515520643E-2</c:v>
-                </c:pt>
-                <c:pt idx="104" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-1.9056073682139907E-2</c:v>
-                </c:pt>
-                <c:pt idx="105" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-2.6568421269134501E-2</c:v>
-                </c:pt>
-                <c:pt idx="106" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-1.4996408045977017E-2</c:v>
-                </c:pt>
-                <c:pt idx="107" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-1.8871364755219222E-2</c:v>
-                </c:pt>
-                <c:pt idx="108" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-6.165484220077122E-3</c:v>
-                </c:pt>
-                <c:pt idx="109" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-2.2829518330711784E-2</c:v>
-                </c:pt>
-                <c:pt idx="110" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-1.5280709159983141E-2</c:v>
-                </c:pt>
-                <c:pt idx="111" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-1.4363283036122554E-2</c:v>
-                </c:pt>
-                <c:pt idx="112" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-7.0572407754265765E-3</c:v>
-                </c:pt>
-                <c:pt idx="113" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-1.5774105004964123E-2</c:v>
-                </c:pt>
-                <c:pt idx="114" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-1.5356407502566394E-2</c:v>
-                </c:pt>
-                <c:pt idx="115" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-5.2789846993810396E-3</c:v>
-                </c:pt>
-                <c:pt idx="116" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-1.2570805440281108E-2</c:v>
-                </c:pt>
-                <c:pt idx="117" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-9.2275599730043956E-3</c:v>
-                </c:pt>
-                <c:pt idx="118" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-7.4309847293264619E-3</c:v>
-                </c:pt>
-                <c:pt idx="119" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-5.0160338395117687E-3</c:v>
-                </c:pt>
-                <c:pt idx="120" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-6.8597083056396446E-3</c:v>
-                </c:pt>
-                <c:pt idx="121" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-4.217491224082548E-3</c:v>
-                </c:pt>
-                <c:pt idx="122" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-3.4428100431145303E-3</c:v>
-                </c:pt>
-                <c:pt idx="123" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-9.6388148393211637E-3</c:v>
-                </c:pt>
-                <c:pt idx="124" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-1.1390063085402913E-2</c:v>
-                </c:pt>
-                <c:pt idx="125" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-6.5761685370625544E-3</c:v>
-                </c:pt>
-                <c:pt idx="126" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-9.2885129875650563E-3</c:v>
-                </c:pt>
-                <c:pt idx="127" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-1.0141492304746591E-2</c:v>
-                </c:pt>
-                <c:pt idx="128" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>4.6824660988120659E-3</c:v>
-                </c:pt>
-                <c:pt idx="129" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-7.7810161794678034E-3</c:v>
-                </c:pt>
-                <c:pt idx="130" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>7.5610066175535451E-4</c:v>
-                </c:pt>
-                <c:pt idx="131" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-7.4215720360504278E-4</c:v>
-                </c:pt>
-                <c:pt idx="132" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-3.3455333783871666E-4</c:v>
-                </c:pt>
-                <c:pt idx="133" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>8.0319672295736666E-4</c:v>
-                </c:pt>
-                <c:pt idx="134" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>8.8548250101989634E-3</c:v>
-                </c:pt>
-                <c:pt idx="135" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-4.5012496105325539E-3</c:v>
-                </c:pt>
-                <c:pt idx="136" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>2.5304991742580718E-3</c:v>
-                </c:pt>
-                <c:pt idx="137" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-3.3012726837952089E-3</c:v>
-                </c:pt>
-                <c:pt idx="138" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>7.0975868204810055E-3</c:v>
-                </c:pt>
-                <c:pt idx="139" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>3.4145954101485465E-3</c:v>
-                </c:pt>
-                <c:pt idx="140" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>5.4737786219267726E-3</c:v>
-                </c:pt>
-                <c:pt idx="141" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>5.7194579632957598E-3</c:v>
-                </c:pt>
-                <c:pt idx="142" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>8.510832561597681E-3</c:v>
-                </c:pt>
-                <c:pt idx="143" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>7.2362082010359874E-3</c:v>
-                </c:pt>
-                <c:pt idx="144" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>2.060889328317006E-2</c:v>
-                </c:pt>
-                <c:pt idx="145" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>2.3256252830758273E-2</c:v>
-                </c:pt>
-                <c:pt idx="146" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>2.3668275289705942E-2</c:v>
-                </c:pt>
-                <c:pt idx="147" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>2.3673542924060875E-2</c:v>
-                </c:pt>
-                <c:pt idx="148" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>2.1941017382683059E-2</c:v>
-                </c:pt>
-                <c:pt idx="149" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>2.5075058697910935E-2</c:v>
-                </c:pt>
-                <c:pt idx="150" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>1.9807913084870954E-2</c:v>
-                </c:pt>
-                <c:pt idx="151" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>2.8039230760782408E-2</c:v>
-                </c:pt>
-                <c:pt idx="152" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>3.2333019956412246E-2</c:v>
-                </c:pt>
-                <c:pt idx="153" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>3.5408075090163083E-2</c:v>
-                </c:pt>
-                <c:pt idx="154" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>3.5271658737456413E-2</c:v>
-                </c:pt>
-                <c:pt idx="155" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>3.1994284666106765E-2</c:v>
-                </c:pt>
-                <c:pt idx="156" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>3.5516160718461975E-2</c:v>
-                </c:pt>
-                <c:pt idx="157" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>1.650984944643441E-2</c:v>
-                </c:pt>
-                <c:pt idx="158" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>2.3191638745456489E-2</c:v>
-                </c:pt>
-                <c:pt idx="159" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>2.8980660739955644E-2</c:v>
-                </c:pt>
-                <c:pt idx="160" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>4.2459798252649783E-3</c:v>
-                </c:pt>
-                <c:pt idx="161" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>1.8534395803913029E-3</c:v>
-                </c:pt>
-                <c:pt idx="162" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>1.3847812498688938E-2</c:v>
-                </c:pt>
-                <c:pt idx="163" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-9.2271534852158554E-3</c:v>
-                </c:pt>
-                <c:pt idx="164" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>6.1808826968694497E-3</c:v>
-                </c:pt>
-                <c:pt idx="165" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>4.2933988577500193E-2</c:v>
-                </c:pt>
-                <c:pt idx="166" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>3.3477665637237752E-2</c:v>
-                </c:pt>
-                <c:pt idx="167" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>3.984072950201023E-2</c:v>
-                </c:pt>
-                <c:pt idx="168" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>2.744139540051127E-2</c:v>
-                </c:pt>
-                <c:pt idx="169" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>1.3689446366782043E-2</c:v>
-                </c:pt>
-                <c:pt idx="170" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>2.6458017764313446E-2</c:v>
-                </c:pt>
-                <c:pt idx="171" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>9.9279822917497373E-3</c:v>
-                </c:pt>
-                <c:pt idx="172" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-7.9027251367714824E-3</c:v>
-                </c:pt>
-                <c:pt idx="173" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-9.701252588671605E-3</c:v>
-                </c:pt>
-                <c:pt idx="174" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-1.0473580393457693E-2</c:v>
-                </c:pt>
-                <c:pt idx="175" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-5.8037998130082702E-3</c:v>
-                </c:pt>
-                <c:pt idx="176" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-4.4607686575108829E-3</c:v>
-                </c:pt>
-                <c:pt idx="177" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>-2.0995747380877505E-3</c:v>
-                </c:pt>
-                <c:pt idx="178" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>2.2861715200184207E-4</c:v>
-                </c:pt>
-                <c:pt idx="179" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>3.9391731664808471E-3</c:v>
-                </c:pt>
-                <c:pt idx="180" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>6.0865636705784709E-3</c:v>
-                </c:pt>
-                <c:pt idx="181" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>8.5212607222917569E-3</c:v>
-                </c:pt>
-                <c:pt idx="182" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>1.220059460369094E-2</c:v>
-                </c:pt>
-                <c:pt idx="183" formatCode="[Red]0.00%;\-0.00%">
-                  <c:v>1.6327689877802198E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="169397632"/>
-        <c:axId val="169396096"/>
+        <c:axId val="156863488"/>
+        <c:axId val="156861952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="169364096"/>
+        <c:axId val="156846336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4540,14 +5125,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169394560"/>
+        <c:crossAx val="156860416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="169394560"/>
+        <c:axId val="156860416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4559,12 +5144,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169364096"/>
+        <c:crossAx val="156846336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="169396096"/>
+        <c:axId val="156861952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -4576,12 +5161,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169397632"/>
+        <c:crossAx val="156863488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="169397632"/>
+        <c:axId val="156863488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4591,7 +5176,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169396096"/>
+        <c:crossAx val="156861952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4936,11 +5521,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I186"/>
+  <dimension ref="A1:P221"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B187" sqref="B187"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A194" sqref="A194:XFD194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -10439,7 +11024,7 @@
         <v>0.26727299999999998</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>33</v>
       </c>
@@ -10467,7 +11052,7 @@
         <v>0.26901321739130435</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
         <v>34</v>
       </c>
@@ -10495,7 +11080,7 @@
         <v>0.27068152173913046</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
         <v>35</v>
       </c>
@@ -10523,7 +11108,7 @@
         <v>0.27237630434782606</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>29</v>
       </c>
@@ -10551,7 +11136,7 @@
         <v>0.27361600000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
         <v>30</v>
       </c>
@@ -10579,7 +11164,7 @@
         <v>0.27560947826086957</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
         <v>31</v>
       </c>
@@ -10607,7 +11192,7 @@
         <v>0.27772308695652176</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
         <v>32</v>
       </c>
@@ -10635,7 +11220,7 @@
         <v>0.27967439130434785</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
         <v>33</v>
       </c>
@@ -10663,7 +11248,7 @@
         <v>0.28156591304347828</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
         <v>34</v>
       </c>
@@ -10690,100 +11275,592 @@
         <f t="shared" si="132"/>
         <v>0.28343917391304346</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L185" s="18"/>
+      <c r="M185" s="18"/>
+      <c r="N185" s="1"/>
+      <c r="O185" s="18"/>
+      <c r="P185" s="1"/>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B186" s="12">
         <v>44836</v>
       </c>
-      <c r="C186" s="13"/>
+      <c r="C186" s="13">
+        <v>43307</v>
+      </c>
       <c r="D186" s="14"/>
-      <c r="E186" s="13"/>
-      <c r="F186" s="15"/>
-      <c r="G186" s="13"/>
-      <c r="H186" s="14"/>
+      <c r="E186" s="13">
+        <f t="shared" ref="E186:E191" si="133">AVERAGE(C180:C186)</f>
+        <v>42536.142857142855</v>
+      </c>
+      <c r="F186" s="15">
+        <f t="shared" ref="F186:F191" si="134">E186/E185-1</f>
+        <v>1.4746477817235037E-2</v>
+      </c>
+      <c r="G186" s="13">
+        <f t="shared" ref="G186:G191" si="135">G185+C186</f>
+        <v>6562408</v>
+      </c>
+      <c r="H186" s="14">
+        <f t="shared" ref="H186:H191" si="136">G186/23000000</f>
+        <v>0.28532208695652173</v>
+      </c>
+      <c r="L186" s="18"/>
+      <c r="M186" s="18"/>
+      <c r="N186" s="1"/>
+      <c r="O186" s="18"/>
+      <c r="P186" s="1"/>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A187" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B187" s="6">
+        <v>44837</v>
+      </c>
+      <c r="C187" s="3">
+        <v>33431</v>
+      </c>
+      <c r="D187" s="4"/>
+      <c r="E187" s="3">
+        <f t="shared" si="133"/>
+        <v>43238.714285714283</v>
+      </c>
+      <c r="F187" s="16">
+        <f t="shared" si="134"/>
+        <v>1.651704600793269E-2</v>
+      </c>
+      <c r="G187" s="3">
+        <f t="shared" si="135"/>
+        <v>6595839</v>
+      </c>
+      <c r="H187" s="4">
+        <f t="shared" si="136"/>
+        <v>0.28677560869565216</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A188" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B188" s="6">
+        <v>44838</v>
+      </c>
+      <c r="C188" s="3">
+        <v>49574</v>
+      </c>
+      <c r="D188" s="4"/>
+      <c r="E188" s="3">
+        <f t="shared" si="133"/>
+        <v>43770.714285714283</v>
+      </c>
+      <c r="F188" s="16">
+        <f t="shared" si="134"/>
+        <v>1.2303788602145538E-2</v>
+      </c>
+      <c r="G188" s="3">
+        <f t="shared" si="135"/>
+        <v>6645413</v>
+      </c>
+      <c r="H188" s="4">
+        <f t="shared" si="136"/>
+        <v>0.28893099999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A189" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B189" s="6">
+        <v>44839</v>
+      </c>
+      <c r="C189" s="3">
+        <v>54929</v>
+      </c>
+      <c r="D189" s="4"/>
+      <c r="E189" s="3">
+        <f t="shared" si="133"/>
+        <v>44673</v>
+      </c>
+      <c r="F189" s="16">
+        <f t="shared" si="134"/>
+        <v>2.0613913412425244E-2</v>
+      </c>
+      <c r="G189" s="3">
+        <f t="shared" si="135"/>
+        <v>6700342</v>
+      </c>
+      <c r="H189" s="4">
+        <f t="shared" si="136"/>
+        <v>0.29131921739130434</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A190" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B190" s="6">
+        <v>44840</v>
+      </c>
+      <c r="C190" s="3">
+        <v>46484</v>
+      </c>
+      <c r="D190" s="4"/>
+      <c r="E190" s="3">
+        <f t="shared" si="133"/>
+        <v>44902.142857142855</v>
+      </c>
+      <c r="F190" s="16">
+        <f t="shared" si="134"/>
+        <v>5.1293366718792033E-3</v>
+      </c>
+      <c r="G190" s="3">
+        <f t="shared" si="135"/>
+        <v>6746826</v>
+      </c>
+      <c r="H190" s="4">
+        <f t="shared" si="136"/>
+        <v>0.29334026086956522</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A191" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191" s="6">
+        <v>44841</v>
+      </c>
+      <c r="C191" s="17">
+        <v>50779</v>
+      </c>
+      <c r="E191" s="3">
+        <f t="shared" si="133"/>
+        <v>45941.285714285717</v>
+      </c>
+      <c r="F191" s="16">
+        <f t="shared" si="134"/>
+        <v>2.3142389004661146E-2</v>
+      </c>
+      <c r="G191" s="3">
+        <f t="shared" si="135"/>
+        <v>6797605</v>
+      </c>
+      <c r="H191" s="4">
+        <f t="shared" si="136"/>
+        <v>0.29554804347826086</v>
+      </c>
+      <c r="L191" s="18"/>
+      <c r="M191" s="18"/>
+      <c r="N191" s="1"/>
+      <c r="O191" s="18"/>
+      <c r="P191" s="1"/>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A192" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B192" s="12">
+        <v>44842</v>
+      </c>
+      <c r="C192" s="13">
+        <v>44534</v>
+      </c>
+      <c r="D192" s="14"/>
+      <c r="E192" s="13">
+        <f t="shared" ref="E192" si="137">AVERAGE(C186:C192)</f>
+        <v>46148.285714285717</v>
+      </c>
+      <c r="F192" s="15">
+        <f t="shared" ref="F192" si="138">E192/E191-1</f>
+        <v>4.5057511295474306E-3</v>
+      </c>
+      <c r="G192" s="13">
+        <f t="shared" ref="G192" si="139">G191+C192</f>
+        <v>6842139</v>
+      </c>
+      <c r="H192" s="14">
+        <f t="shared" ref="H192" si="140">G192/23000000</f>
+        <v>0.29748430434782608</v>
+      </c>
+      <c r="L192" s="18"/>
+      <c r="M192" s="18"/>
+      <c r="N192" s="1"/>
+      <c r="O192" s="18"/>
+      <c r="P192" s="1"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B193" s="12">
+        <v>44843</v>
+      </c>
+      <c r="C193" s="13">
+        <v>44565</v>
+      </c>
+      <c r="E193" s="13">
+        <f t="shared" ref="E193:E194" si="141">AVERAGE(C187:C193)</f>
+        <v>46328</v>
+      </c>
+      <c r="F193" s="15">
+        <f t="shared" ref="F193:F194" si="142">E193/E192-1</f>
+        <v>3.894278691670916E-3</v>
+      </c>
+      <c r="G193" s="13">
+        <f t="shared" ref="G193:G194" si="143">G192+C193</f>
+        <v>6886704</v>
+      </c>
+      <c r="H193" s="14">
+        <f t="shared" ref="H193:H194" si="144">G193/23000000</f>
+        <v>0.29942191304347826</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B194" s="6">
+        <v>44844</v>
+      </c>
+      <c r="C194" s="3">
+        <v>32068</v>
+      </c>
+      <c r="D194" s="4"/>
+      <c r="E194" s="3">
+        <f t="shared" si="141"/>
+        <v>46133.285714285717</v>
+      </c>
+      <c r="F194" s="16">
+        <f t="shared" si="142"/>
+        <v>-4.2029503910007149E-3</v>
+      </c>
+      <c r="G194" s="3">
+        <f t="shared" si="143"/>
+        <v>6918772</v>
+      </c>
+      <c r="H194" s="4">
+        <f t="shared" si="144"/>
+        <v>0.30081617391304349</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195" s="6">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B196" s="6">
+        <v>44846</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B197" s="6">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B198" s="6">
+        <v>44848</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199" s="12">
+        <v>44849</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B200" s="12">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B201" s="6">
+        <v>44851</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" s="6">
+        <v>44852</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B203" s="6">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B204" s="6">
+        <v>44854</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205" s="6">
+        <v>44855</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B206" s="12">
+        <v>44856</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B207" s="12">
+        <v>44857</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B208" s="6">
+        <v>44858</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B209" s="6">
+        <v>44859</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B210" s="6">
+        <v>44860</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B211" s="6">
+        <v>44861</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B212" s="6">
+        <v>44862</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B213" s="12">
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214" s="12">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B215" s="6">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" s="6">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B217" s="6">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B218" s="6">
+        <v>44868</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" s="6">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B220" s="12">
+        <v>44870</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B221" s="12">
+        <v>44871</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F9:F151">
+    <cfRule type="cellIs" dxfId="22" priority="33" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F152:F156">
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F157">
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F158">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F159:F163">
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F164">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F165">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F166:F170">
     <cfRule type="cellIs" dxfId="15" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F186">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F152:F156">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F157">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F158">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F159:F163">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F164">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F165">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F166:F170">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F171">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F173:F177">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F178">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F179">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F180:F184">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F185">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F186">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F192">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F187:F191">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F193">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/COVID-TAIWAN.xlsx
+++ b/COVID-TAIWAN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="49">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +205,14 @@
     <t>一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -382,7 +390,21 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="輸入" xfId="1" builtinId="20"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -569,8 +591,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="24"/>
-      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="wholeTable" dxfId="26"/>
+      <tableStyleElement type="headerRow" dxfId="25"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1877,6 +1899,27 @@
                 <c:pt idx="192">
                   <c:v>32068</c:v>
                 </c:pt>
+                <c:pt idx="193">
+                  <c:v>41438</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>52405</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>53421</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>48267</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>53510</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>41541</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>28806</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2580,8 +2623,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="156846336"/>
-        <c:axId val="156860416"/>
+        <c:axId val="103106816"/>
+        <c:axId val="103129088"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3840,6 +3883,27 @@
                 <c:pt idx="192">
                   <c:v>46133.285714285717</c:v>
                 </c:pt>
+                <c:pt idx="193">
+                  <c:v>44971</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44610.428571428572</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>45601.428571428572</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>45242.571428571428</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>46524.857142857145</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>46092.857142857145</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>45626.857142857145</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5096,6 +5160,27 @@
                 <c:pt idx="192" formatCode="[Red]0.00%;\-0.00%">
                   <c:v>-4.2029503910007149E-3</c:v>
                 </c:pt>
+                <c:pt idx="193" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-2.519408050586347E-2</c:v>
+                </c:pt>
+                <c:pt idx="194" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-8.0178654815642458E-3</c:v>
+                </c:pt>
+                <c:pt idx="195" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>2.2214536639414861E-2</c:v>
+                </c:pt>
+                <c:pt idx="196" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-7.8694276495098192E-3</c:v>
+                </c:pt>
+                <c:pt idx="197" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>2.8342458746187349E-2</c:v>
+                </c:pt>
+                <c:pt idx="198" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-9.2853589786104918E-3</c:v>
+                </c:pt>
+                <c:pt idx="199" formatCode="[Red]0.00%;\-0.00%">
+                  <c:v>-1.0110026344335998E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5111,11 +5196,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156863488"/>
-        <c:axId val="156861952"/>
+        <c:axId val="103132160"/>
+        <c:axId val="103130624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="156846336"/>
+        <c:axId val="103106816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5125,14 +5210,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156860416"/>
+        <c:crossAx val="103129088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="156860416"/>
+        <c:axId val="103129088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5144,12 +5229,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156846336"/>
+        <c:crossAx val="103106816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156861952"/>
+        <c:axId val="103130624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -5161,12 +5246,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156863488"/>
+        <c:crossAx val="103132160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="156863488"/>
+        <c:axId val="103132160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5176,7 +5261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156861952"/>
+        <c:crossAx val="103130624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5185,6 +5270,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5524,8 +5610,8 @@
   <dimension ref="A1:P221"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A194" sqref="A194:XFD194"/>
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E201" sqref="E201:H201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -11491,7 +11577,7 @@
       <c r="O192" s="18"/>
       <c r="P192" s="1"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
         <v>9</v>
       </c>
@@ -11502,23 +11588,23 @@
         <v>44565</v>
       </c>
       <c r="E193" s="13">
-        <f t="shared" ref="E193:E194" si="141">AVERAGE(C187:C193)</f>
+        <f t="shared" ref="E193:E199" si="141">AVERAGE(C187:C193)</f>
         <v>46328</v>
       </c>
       <c r="F193" s="15">
-        <f t="shared" ref="F193:F194" si="142">E193/E192-1</f>
+        <f t="shared" ref="F193:F199" si="142">E193/E192-1</f>
         <v>3.894278691670916E-3</v>
       </c>
       <c r="G193" s="13">
-        <f t="shared" ref="G193:G194" si="143">G192+C193</f>
+        <f t="shared" ref="G193:G199" si="143">G192+C193</f>
         <v>6886704</v>
       </c>
       <c r="H193" s="14">
-        <f t="shared" ref="H193:H194" si="144">G193/23000000</f>
+        <f t="shared" ref="H193:H199" si="144">G193/23000000</f>
         <v>0.29942191304347826</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
         <v>46</v>
       </c>
@@ -11546,63 +11632,208 @@
         <v>0.30081617391304349</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B195" s="6">
         <v>44845</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C195" s="3">
+        <v>41438</v>
+      </c>
+      <c r="E195" s="3">
+        <f t="shared" si="141"/>
+        <v>44971</v>
+      </c>
+      <c r="F195" s="16">
+        <f t="shared" si="142"/>
+        <v>-2.519408050586347E-2</v>
+      </c>
+      <c r="G195" s="3">
+        <f t="shared" si="143"/>
+        <v>6960210</v>
+      </c>
+      <c r="H195" s="4">
+        <f t="shared" si="144"/>
+        <v>0.30261782608695653</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B196" s="6">
         <v>44846</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C196" s="3">
+        <v>52405</v>
+      </c>
+      <c r="E196" s="3">
+        <f t="shared" si="141"/>
+        <v>44610.428571428572</v>
+      </c>
+      <c r="F196" s="16">
+        <f t="shared" si="142"/>
+        <v>-8.0178654815642458E-3</v>
+      </c>
+      <c r="G196" s="3">
+        <f t="shared" si="143"/>
+        <v>7012615</v>
+      </c>
+      <c r="H196" s="4">
+        <f t="shared" si="144"/>
+        <v>0.30489630434782611</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B197" s="6">
         <v>44847</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C197" s="3">
+        <v>53421</v>
+      </c>
+      <c r="E197" s="3">
+        <f t="shared" si="141"/>
+        <v>45601.428571428572</v>
+      </c>
+      <c r="F197" s="16">
+        <f t="shared" si="142"/>
+        <v>2.2214536639414861E-2</v>
+      </c>
+      <c r="G197" s="3">
+        <f t="shared" si="143"/>
+        <v>7066036</v>
+      </c>
+      <c r="H197" s="4">
+        <f t="shared" si="144"/>
+        <v>0.30721895652173914</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B198" s="6">
         <v>44848</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C198" s="3">
+        <v>48267</v>
+      </c>
+      <c r="E198" s="3">
+        <f t="shared" si="141"/>
+        <v>45242.571428571428</v>
+      </c>
+      <c r="F198" s="16">
+        <f t="shared" si="142"/>
+        <v>-7.8694276495098192E-3</v>
+      </c>
+      <c r="G198" s="3">
+        <f t="shared" si="143"/>
+        <v>7114303</v>
+      </c>
+      <c r="H198" s="4">
+        <f t="shared" si="144"/>
+        <v>0.30931752173913041</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B199" s="12">
         <v>44849</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C199" s="13">
+        <v>53510</v>
+      </c>
+      <c r="D199" s="14"/>
+      <c r="E199" s="13">
+        <f t="shared" si="141"/>
+        <v>46524.857142857145</v>
+      </c>
+      <c r="F199" s="15">
+        <f t="shared" si="142"/>
+        <v>2.8342458746187349E-2</v>
+      </c>
+      <c r="G199" s="13">
+        <f t="shared" si="143"/>
+        <v>7167813</v>
+      </c>
+      <c r="H199" s="14">
+        <f t="shared" si="144"/>
+        <v>0.31164404347826086</v>
+      </c>
+      <c r="L199" s="18"/>
+      <c r="M199" s="18"/>
+      <c r="N199" s="1"/>
+      <c r="O199" s="18"/>
+      <c r="P199" s="1"/>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B200" s="12">
         <v>44850</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C200" s="13">
+        <v>41541</v>
+      </c>
+      <c r="D200" s="14"/>
+      <c r="E200" s="13">
+        <f t="shared" ref="E200:E201" si="145">AVERAGE(C194:C200)</f>
+        <v>46092.857142857145</v>
+      </c>
+      <c r="F200" s="15">
+        <f t="shared" ref="F200:F201" si="146">E200/E199-1</f>
+        <v>-9.2853589786104918E-3</v>
+      </c>
+      <c r="G200" s="13">
+        <f t="shared" ref="G200:G201" si="147">G199+C200</f>
+        <v>7209354</v>
+      </c>
+      <c r="H200" s="14">
+        <f t="shared" ref="H200:H201" si="148">G200/23000000</f>
+        <v>0.31345017391304347</v>
+      </c>
+      <c r="L200" s="18"/>
+      <c r="M200" s="18"/>
+      <c r="N200" s="1"/>
+      <c r="O200" s="18"/>
+      <c r="P200" s="1"/>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B201" s="6">
         <v>44851</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C201" s="3">
+        <v>28806</v>
+      </c>
+      <c r="E201" s="3">
+        <f t="shared" si="145"/>
+        <v>45626.857142857145</v>
+      </c>
+      <c r="F201" s="16">
+        <f t="shared" si="146"/>
+        <v>-1.0110026344335998E-2</v>
+      </c>
+      <c r="G201" s="3">
+        <f t="shared" si="147"/>
+        <v>7238160</v>
+      </c>
+      <c r="H201" s="4">
+        <f t="shared" si="148"/>
+        <v>0.3147026086956522</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
         <v>10</v>
       </c>
@@ -11610,7 +11841,7 @@
         <v>44852</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
         <v>11</v>
       </c>
@@ -11618,7 +11849,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
         <v>12</v>
       </c>
@@ -11626,7 +11857,7 @@
         <v>44854</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
         <v>7</v>
       </c>
@@ -11634,7 +11865,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
         <v>8</v>
       </c>
@@ -11642,7 +11873,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
         <v>9</v>
       </c>
@@ -11650,7 +11881,7 @@
         <v>44857</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
         <v>14</v>
       </c>
@@ -11765,101 +11996,121 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F9:F151">
-    <cfRule type="cellIs" dxfId="22" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F152:F156">
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F157">
-    <cfRule type="cellIs" dxfId="20" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F158">
-    <cfRule type="cellIs" dxfId="19" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F159:F163">
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F164">
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F165">
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F166:F170">
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F171">
-    <cfRule type="cellIs" dxfId="14" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172">
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F173:F177">
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F178">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F179">
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F180:F184">
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F185">
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F186">
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F187:F191">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F193">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F195:F198">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F199">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F200">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F201">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
